--- a/Python/Python_Notes/Datastructure_Overview.xlsx
+++ b/Python/Python_Notes/Datastructure_Overview.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
   <si>
     <t>Data Type</t>
   </si>
@@ -149,6 +149,12 @@
     <t>t1=()
 t1=(10,)
 t1=10,</t>
+  </si>
+  <si>
+    <t>t1=set()</t>
+  </si>
+  <si>
+    <t>t1={}</t>
   </si>
   <si>
     <t>Add data</t>
@@ -183,6 +189,13 @@
 insert()</t>
   </si>
   <si>
+    <t>1. s.add(0)
+2. s.add(12)
+3. s.add('A')
+4. s=set(input('Please enter the values to be used for set: '))
+Not supported : append()</t>
+  </si>
+  <si>
     <t>Accessing Elements</t>
   </si>
   <si>
@@ -200,6 +213,20 @@
 print(l.index(1))</t>
   </si>
   <si>
+    <t>Not Supported:
+1. Slicing
+2. Indexing
+Supported:
+1. len() &gt;&gt; Returns number of elements present in set
+2. add() &gt;&gt; To add individual elements to set we use add() it is set specific method, in list we use append()
+  a) s.add(0)
+  b) s.add(12)
+  c) s.add('A')
+3. update() &gt;&gt; To add multiple items to the set, we can pass any number of arguments, but every argument passed should be iterable object (like list,string,range etc).
+  a) s.update(range(1,10,2),range(0,10,2))
+print(s) ###{0, 1, 2, 3, 4, 5, 6, 7, 8, 9}</t>
+  </si>
+  <si>
     <t>Operators</t>
   </si>
   <si>
@@ -210,6 +237,11 @@
 5. 'in' and 'not in'</t>
   </si>
   <si>
+    <t>Not Supported : '+','*'
+Supported, but no significance : '&lt;','&gt;','&gt;=','&lt;='
+Supported : '==','!=','in','not in'</t>
+  </si>
+  <si>
     <t>Remove Data</t>
   </si>
   <si>
@@ -220,6 +252,13 @@
   </si>
   <si>
     <t>Not Supported</t>
+  </si>
+  <si>
+    <t>##Methods to remove elements from set:
+1. remove() &gt;&gt; Syntax : s.remove(x) ##if x is not available then we will get key error
+2. discard() &gt;&gt; Syntax : s.discard(x) ##if x is not available then it will not throw any error, just discard and move on
+3. pop() &gt;&gt; Syntax : s.pop() ##to remove any one random element, no control on what will be removed and returns remaining elements
+4. clear() &gt;&gt; Syntax : s.clear() ##to remove all elements from set</t>
   </si>
   <si>
     <t>Ordering Elements</t>
@@ -244,6 +283,9 @@
 r=sorted(t,reverse=True)</t>
   </si>
   <si>
+    <t>Not Supported, because the order is not maintained</t>
+  </si>
+  <si>
     <t>Aliasing / Cloning</t>
   </si>
   <si>
@@ -259,6 +301,12 @@
 2. Copy not Supported</t>
   </si>
   <si>
+    <t>1. Aliasing &gt;&gt; Disadvantage is, if changes done to s1 will impact s2
+ex: s2=s1
+2. Cloning &gt;&gt; The changes done to s1 won't impact s2
+ex: s2=s1.copy()</t>
+  </si>
+  <si>
     <t>Nested List</t>
   </si>
   <si>
@@ -277,6 +325,14 @@
     <t>Comprehension is not valid for tuple, though it would not throw any error during comprehension, but output data type is not tuple, instead it's a generator.</t>
   </si>
   <si>
+    <t>s={x*x for x in range(1,6)}
+print(s)
+print(type(s))
+##Output:
+{1, 4, 9, 16, 25}
+&lt;class 'set'&gt;</t>
+  </si>
+  <si>
     <t>Min / Max</t>
   </si>
   <si>
@@ -286,6 +342,12 @@
   </si>
   <si>
     <t>t=(40, 50, 20, 10)
+print(max(t)) ##50
+print(min(t)) ##40</t>
+  </si>
+  <si>
+    <t>t={40, 50, 20, 10}
+print(type(t)) ##&lt;class 'set'&gt;
 print(max(t)) ##50
 print(min(t)) ##40</t>
   </si>
@@ -300,7 +362,7 @@
 l=[a,b,c,d] ##This is list packing
 print(l) ##[10, 20, 30, 40]
 l=[10,20,30,40]
-a,b,c,d=l ##Tuple Unpacking
+a,b,c,d=l ##List Unpacking
 print(a,b,c,d) ##10 20 30 40
 print(type(a)) ##&lt;class 'int'&gt;</t>
   </si>
@@ -316,16 +378,62 @@
 print(a,b,c,d) ##10 20 30 40
 print(type(a)) ##&lt;class 'int'&gt;</t>
   </si>
+  <si>
+    <t>a=10
+b=20
+c=30
+d=40
+t={a,b,c,d} ##This is Set packing
+print(type(t))
+print(t) ##(10, 20, 30, 40)
+t={10,20,30,40}
+a,b,c,d=t ##Set Unpacking
+print(a,b,c,d) ##10 20 30 40
+print(type(a)) ##&lt;class 'int'&gt;</t>
+  </si>
+  <si>
+    <t>Set specific mathematical operations</t>
+  </si>
+  <si>
+    <t>1. union() &gt;&gt; To combine elements from two set and return all elements present inside s1 and s2 (sorry boss, duplicates are not allowed)
+2. intersection &gt;&gt; To combine and return common elements between s1 and s2
+3. difference() &gt;&gt; To remove elements present in s1 but not in s2
+4. symmetric_difference() &gt;&gt; It's double of difference() i.e. To remove elements present in s1 but not in s2 and also to remove elements present in s2 but not in s1
+##Example1:
+s1={10,20,30,40}, s2={30,40,50,60}
+s3=s1.union(s2) ##s3 = s1|s2 also works the same way
+print(s3)
+##Output: {40, 10, 50, 20, 60, 30}
+##Example2:
+s1={10,20,30,40}, s2={30,40,50,60}
+s3=s1.intersection(s2) ##s3=s1&amp;s2 also works the same way
+print(s3)
+##Output: {40, 30}
+##Example3:
+s1={10,20,30,40}, s2={30,40,50,60}
+s3=s1.difference(s2) ##s3=s1-s2 also works the same way
+s4=s2.difference(s1) ##s4=s2-s1 also works the same way
+print(s3)
+print(s4)
+##Output:
+{10, 20}
+{50, 60}
+##Example4:
+s1={10,20,30,40}, s2={30,40,50,60}
+s3=s1.symmetric_difference(s2) ##s3=s1^s2 also works the same way
+print(s3)
+##Output: {10, 50, 20, 60}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -344,11 +452,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,93 +473,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,8 +497,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,25 +617,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +695,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,43 +773,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,97 +797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,8 +828,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -738,56 +848,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,6 +870,54 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -820,152 +928,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,26 +1089,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1338,22 +1452,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1364,16 +1478,16 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1384,16 +1498,16 @@
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1404,16 +1518,16 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1424,16 +1538,16 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1444,16 +1558,16 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1464,16 +1578,16 @@
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1484,16 +1598,16 @@
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1504,16 +1618,16 @@
       <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1524,16 +1638,16 @@
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1544,16 +1658,16 @@
       <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1564,16 +1678,16 @@
       <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1584,16 +1698,16 @@
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1604,16 +1718,16 @@
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1626,10 +1740,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:O18"/>
+  <dimension ref="A2:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1741,43 +1855,43 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1785,43 +1899,43 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1829,43 +1943,43 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="H6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1873,274 +1987,328 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="H7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="2:15">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" ht="288" spans="2:15">
-      <c r="B9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" ht="230.4" spans="2:15">
-      <c r="B10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" ht="86.4" spans="2:15">
-      <c r="B11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" ht="115.2" spans="2:15">
-      <c r="B12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" ht="144" spans="2:15">
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" ht="216" spans="2:15">
-      <c r="B13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" ht="172.8" spans="2:15">
-      <c r="B14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" ht="43.2" spans="2:15">
-      <c r="B15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" ht="57.6" spans="2:15">
-      <c r="B16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" ht="43.2" spans="2:15">
-      <c r="B17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" ht="158.4" spans="2:5">
-      <c r="B18" t="s">
+      <c r="B15" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" ht="100.8" spans="2:15">
+      <c r="B16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" ht="57.6" spans="2:15">
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" ht="172.8" spans="2:15">
+      <c r="B18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>70</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" ht="409.5" spans="1:15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
